--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntn4-Ptprg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntn4-Ptprg.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1033263333333333</v>
+        <v>0.049002</v>
       </c>
       <c r="H2">
-        <v>0.309979</v>
+        <v>0.147006</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>29.98299133333333</v>
+        <v>37.897696</v>
       </c>
       <c r="N2">
-        <v>89.94897399999999</v>
+        <v>113.693088</v>
       </c>
       <c r="O2">
-        <v>0.5192502492747125</v>
+        <v>0.5443297838974656</v>
       </c>
       <c r="P2">
-        <v>0.5192502492747125</v>
+        <v>0.5443297838974654</v>
       </c>
       <c r="Q2">
-        <v>3.098032556838445</v>
+        <v>1.857062899392</v>
       </c>
       <c r="R2">
-        <v>27.882293011546</v>
+        <v>16.713566094528</v>
       </c>
       <c r="S2">
-        <v>0.5192502492747125</v>
+        <v>0.5443297838974656</v>
       </c>
       <c r="T2">
-        <v>0.5192502492747125</v>
+        <v>0.5443297838974654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1033263333333333</v>
+        <v>0.049002</v>
       </c>
       <c r="H3">
-        <v>0.309979</v>
+        <v>0.147006</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>38.538418</v>
       </c>
       <c r="O3">
-        <v>0.2224714998211438</v>
+        <v>0.1845108538321186</v>
       </c>
       <c r="P3">
-        <v>0.2224714998211438</v>
+        <v>0.1845108538321186</v>
       </c>
       <c r="Q3">
-        <v>1.327344474802445</v>
+        <v>0.629486519612</v>
       </c>
       <c r="R3">
-        <v>11.946100273222</v>
+        <v>5.665378676508</v>
       </c>
       <c r="S3">
-        <v>0.2224714998211438</v>
+        <v>0.1845108538321186</v>
       </c>
       <c r="T3">
-        <v>0.2224714998211438</v>
+        <v>0.1845108538321186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1033263333333333</v>
+        <v>0.049002</v>
       </c>
       <c r="H4">
-        <v>0.309979</v>
+        <v>0.147006</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.87053</v>
+        <v>18.829808</v>
       </c>
       <c r="N4">
-        <v>44.61159</v>
+        <v>56.489424</v>
       </c>
       <c r="O4">
-        <v>0.2575302218348958</v>
+        <v>0.2704551041696774</v>
       </c>
       <c r="P4">
-        <v>0.2575302218348958</v>
+        <v>0.2704551041696774</v>
       </c>
       <c r="Q4">
-        <v>1.536517339623333</v>
+        <v>0.9226982516159999</v>
       </c>
       <c r="R4">
-        <v>13.82865605661</v>
+        <v>8.304284264544</v>
       </c>
       <c r="S4">
-        <v>0.2575302218348958</v>
+        <v>0.2704551041696774</v>
       </c>
       <c r="T4">
-        <v>0.2575302218348958</v>
+        <v>0.2704551041696774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1033263333333333</v>
+        <v>0.049002</v>
       </c>
       <c r="H5">
-        <v>0.309979</v>
+        <v>0.147006</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04319333333333333</v>
+        <v>0.04903233333333334</v>
       </c>
       <c r="N5">
-        <v>0.12958</v>
+        <v>0.147097</v>
       </c>
       <c r="O5">
-        <v>0.0007480290692478299</v>
+        <v>0.0007042581007384151</v>
       </c>
       <c r="P5">
-        <v>0.0007480290692478299</v>
+        <v>0.000704258100738415</v>
       </c>
       <c r="Q5">
-        <v>0.004463008757777778</v>
+        <v>0.002402682398</v>
       </c>
       <c r="R5">
-        <v>0.04016707882</v>
+        <v>0.021624141582</v>
       </c>
       <c r="S5">
-        <v>0.0007480290692478299</v>
+        <v>0.0007042581007384151</v>
       </c>
       <c r="T5">
-        <v>0.0007480290692478299</v>
+        <v>0.000704258100738415</v>
       </c>
     </row>
   </sheetData>
